--- a/3.results/model_selection/mouette_melanocephale_HR_4_add_spatial_effects.xlsx
+++ b/3.results/model_selection/mouette_melanocephale_HR_4_add_spatial_effects.xlsx
@@ -547,19 +547,19 @@
         <v>26</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1.136</v>
+        <v>1.097</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>120.6</v>
+        <v>95.4</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>0.51</v>
@@ -571,55 +571,55 @@
         <v>0.5</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="K2" s="1" t="n">
         <v>148</v>
       </c>
       <c r="L2" s="1" t="n">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>627</v>
       </c>
       <c r="O2" s="1" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P2" s="1" t="n">
         <v>396</v>
       </c>
       <c r="Q2" s="1" t="n">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="R2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="T2" s="1" t="n">
-        <v>-0.85</v>
+        <v>-0.77</v>
       </c>
       <c r="U2" s="1" t="n">
-        <v>-2.5</v>
+        <v>-2.46</v>
       </c>
       <c r="V2" s="1" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="W2" s="1" t="n">
-        <v>1</v>
+        <v>0.94</v>
       </c>
       <c r="X2" s="1" t="n">
-        <v>0.54</v>
+        <v>0.52</v>
       </c>
       <c r="Y2" s="1" t="n">
-        <v>0.82</v>
+        <v>0.81</v>
       </c>
       <c r="Z2" s="1" t="n">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="3">
@@ -716,16 +716,16 @@
         <v>0.64</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>0.51</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="I4" s="1" t="n">
         <v>0.5</v>
@@ -743,16 +743,16 @@
         <v>1166</v>
       </c>
       <c r="N4" s="1" t="n">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="O4" s="1" t="n">
         <v>145</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="R4" s="1" t="n">
         <v>3</v>
@@ -793,7 +793,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>0.5</v>
@@ -802,7 +802,7 @@
         <v>0.41</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="H5" s="1" t="n">
         <v>0.48</v>
@@ -823,7 +823,7 @@
         <v>1173</v>
       </c>
       <c r="N5" s="1" t="n">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="O5" s="1" t="n">
         <v>145</v>
@@ -832,7 +832,7 @@
         <v>442</v>
       </c>
       <c r="Q5" s="1" t="n">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="R5" s="1" t="n">
         <v>4</v>
@@ -909,7 +909,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="15">
-      <formula>J2&lt;626</formula>
+      <formula>J2&lt;624</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K5">
@@ -922,7 +922,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="13">
-      <formula>K2&lt;151</formula>
+      <formula>K2&lt;149</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L5">
@@ -935,7 +935,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="11">
-      <formula>L2&lt;393</formula>
+      <formula>L2&lt;391</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M5">
@@ -948,7 +948,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="9">
-      <formula>M2&lt;1160</formula>
+      <formula>M2&lt;1158</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N5">
@@ -961,7 +961,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="7">
-      <formula>N2&lt;628</formula>
+      <formula>N2&lt;627</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O5">
@@ -974,7 +974,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="5">
-      <formula>O2&lt;150</formula>
+      <formula>O2&lt;148</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P5">
@@ -987,7 +987,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="3">
-      <formula>P2&lt;401</formula>
+      <formula>P2&lt;399</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q5">
@@ -1000,7 +1000,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>Q2&lt;1176</formula>
+      <formula>Q2&lt;1173</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
